--- a/iselUssSyncV2/OutputWSL/20220426_1240_D50L474W90Q25U0.34H93G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1240_D50L474W90Q25U0.34H93G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>93.476587301587287</v>
+        <v>93.477518068608248</v>
       </c>
       <c r="F2" s="0">
-        <v>93.31384920634919</v>
+        <v>93.314779973370221</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>94.185396825396822</v>
+        <v>94.187672033670339</v>
       </c>
       <c r="F3" s="0">
-        <v>95.164682539682559</v>
+        <v>95.166957747956005</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>93.601230158730132</v>
+        <v>93.603981092369935</v>
       </c>
       <c r="F4" s="0">
-        <v>97.043968253968274</v>
+        <v>97.046719187608019</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>93.097609561752989</v>
+        <v>93.100415651956951</v>
       </c>
       <c r="F5" s="0">
-        <v>97.614382470119551</v>
+        <v>97.617188560323513</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>91.872270916334685</v>
+        <v>91.875125268532344</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>89.845378486055836</v>
+        <v>89.848274205676589</v>
       </c>
       <c r="F7" s="0">
-        <v>97.351035856573702</v>
+        <v>97.353931576194512</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>86.370278884462167</v>
+        <v>86.373209076935595</v>
       </c>
       <c r="F8" s="0">
-        <v>92.634143426294841</v>
+        <v>92.637073618768213</v>
       </c>
     </row>
     <row r="9">
@@ -260,10 +260,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>84.5897619047619</v>
+        <v>84.592703955896653</v>
       </c>
       <c r="F9" s="0">
-        <v>83.351031746031722</v>
+        <v>83.353973797166461</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>83.017290836653387</v>
+        <v>83.020243643318111</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -298,7 +298,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>81.415139442231066</v>
+        <v>81.418101901294563</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -316,7 +316,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>80.568167330677312</v>
+        <v>80.571134202265938</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -334,10 +334,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>80.039841269841276</v>
+        <v>80.042812278172207</v>
       </c>
       <c r="F13" s="0">
-        <v>63.195555555555558</v>
+        <v>63.198526563886489</v>
       </c>
     </row>
     <row r="14">
@@ -354,10 +354,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>79.498611111111117</v>
+        <v>79.501585980401543</v>
       </c>
       <c r="F14" s="0">
-        <v>65.682579365079363</v>
+        <v>65.685554234369803</v>
       </c>
     </row>
     <row r="15">
@@ -374,10 +374,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>79.435039682539667</v>
+        <v>79.438018137006807</v>
       </c>
       <c r="F15" s="0">
-        <v>68.098888888888879</v>
+        <v>68.101867343356005</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>79.022817460317469</v>
+        <v>79.025802257789479</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -412,10 +412,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>80.181071428571443</v>
+        <v>80.184061465917054</v>
       </c>
       <c r="F17" s="0">
-        <v>87.481984126984131</v>
+        <v>87.484974164329714</v>
       </c>
     </row>
     <row r="18">
@@ -432,10 +432,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>82.634523809523799</v>
+        <v>82.637517983611701</v>
       </c>
       <c r="F18" s="0">
-        <v>87.629166666666663</v>
+        <v>87.632160840754565</v>
       </c>
     </row>
     <row r="19">
@@ -452,10 +452,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>88.326494023904374</v>
+        <v>88.329493162083068</v>
       </c>
       <c r="F19" s="0">
-        <v>82.470239043824719</v>
+        <v>82.473238182003385</v>
       </c>
     </row>
     <row r="20">
@@ -472,10 +472,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>83.222182539682564</v>
+        <v>83.225181677861215</v>
       </c>
       <c r="F20" s="0">
-        <v>84.564166666666679</v>
+        <v>84.567165804845331</v>
       </c>
     </row>
     <row r="21">
@@ -492,10 +492,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>80.798804780876509</v>
+        <v>80.801797024484628</v>
       </c>
       <c r="F21" s="0">
-        <v>86.21653386454183</v>
+        <v>86.219526108149992</v>
       </c>
     </row>
     <row r="22">
@@ -512,10 +512,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>86.373784860557762</v>
+        <v>86.376763315024874</v>
       </c>
       <c r="F22" s="0">
-        <v>85.804183266932284</v>
+        <v>85.807161721399382</v>
       </c>
     </row>
     <row r="23">
@@ -532,10 +532,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>86.770956175298807</v>
+        <v>86.773913946054336</v>
       </c>
       <c r="F23" s="0">
-        <v>86.180318725099596</v>
+        <v>86.183276495855111</v>
       </c>
     </row>
     <row r="24">
@@ -552,10 +552,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>83.113625498007949</v>
+        <v>83.116521217628772</v>
       </c>
       <c r="F24" s="0">
-        <v>86.464661354581665</v>
+        <v>86.467557074202475</v>
       </c>
     </row>
     <row r="25">
@@ -572,10 +572,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>85.96434262948209</v>
+        <v>85.967148719686023</v>
       </c>
       <c r="F25" s="0">
-        <v>86.385896414342625</v>
+        <v>86.388702504546586</v>
       </c>
     </row>
     <row r="26">
@@ -592,10 +592,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>84.603452380952376</v>
+        <v>84.606141263457403</v>
       </c>
       <c r="F26" s="0">
-        <v>86.102976190476184</v>
+        <v>86.105665072981211</v>
       </c>
     </row>
     <row r="27">
@@ -612,10 +612,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>83.468095238095245</v>
+        <v>83.47063933461925</v>
       </c>
       <c r="F27" s="0">
-        <v>86.148214285714303</v>
+        <v>86.15075838223828</v>
       </c>
     </row>
     <row r="28">
@@ -632,10 +632,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>85.914223107569697</v>
+        <v>85.916594839830552</v>
       </c>
       <c r="F28" s="0">
-        <v>86.103266932270941</v>
+        <v>86.105638664531767</v>
       </c>
     </row>
     <row r="29">
@@ -652,10 +652,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>84.108565737051791</v>
+        <v>84.110737526767394</v>
       </c>
       <c r="F29" s="0">
-        <v>85.787250996015942</v>
+        <v>85.789422785731517</v>
       </c>
     </row>
     <row r="30">
@@ -672,10 +672,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>82.222988047808741</v>
+        <v>82.224677217587555</v>
       </c>
       <c r="F30" s="0">
-        <v>85.201434262948212</v>
+        <v>85.203123432726997</v>
       </c>
     </row>
   </sheetData>
